--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.28469109380193</v>
+        <v>4.822863000000001</v>
       </c>
       <c r="H2">
-        <v>3.28469109380193</v>
+        <v>14.468589</v>
       </c>
       <c r="I2">
-        <v>0.00807266556403282</v>
+        <v>0.01095411591491635</v>
       </c>
       <c r="J2">
-        <v>0.00807266556403282</v>
+        <v>0.0112404931114524</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N2">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O2">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P2">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q2">
-        <v>0.9518579355199739</v>
+        <v>1.725297249579</v>
       </c>
       <c r="R2">
-        <v>0.9518579355199739</v>
+        <v>15.527675246211</v>
       </c>
       <c r="S2">
-        <v>0.0002493414718015552</v>
+        <v>0.0003947226205811119</v>
       </c>
       <c r="T2">
-        <v>0.0002493414718015552</v>
+        <v>0.0005120423437357119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.28469109380193</v>
+        <v>4.822863000000001</v>
       </c>
       <c r="H3">
-        <v>3.28469109380193</v>
+        <v>14.468589</v>
       </c>
       <c r="I3">
-        <v>0.00807266556403282</v>
+        <v>0.01095411591491635</v>
       </c>
       <c r="J3">
-        <v>0.00807266556403282</v>
+        <v>0.0112404931114524</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N3">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P3">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q3">
-        <v>7.61255225480778</v>
+        <v>12.391002507344</v>
       </c>
       <c r="R3">
-        <v>7.61255225480778</v>
+        <v>111.519022566096</v>
       </c>
       <c r="S3">
-        <v>0.001994126342333981</v>
+        <v>0.002834879023031791</v>
       </c>
       <c r="T3">
-        <v>0.001994126342333981</v>
+        <v>0.003677463675690503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.28469109380193</v>
+        <v>4.822863000000001</v>
       </c>
       <c r="H4">
-        <v>3.28469109380193</v>
+        <v>14.468589</v>
       </c>
       <c r="I4">
-        <v>0.00807266556403282</v>
+        <v>0.01095411591491635</v>
       </c>
       <c r="J4">
-        <v>0.00807266556403282</v>
+        <v>0.0112404931114524</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N4">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O4">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P4">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q4">
-        <v>1.121577307154763</v>
+        <v>2.542939720663</v>
       </c>
       <c r="R4">
-        <v>1.121577307154763</v>
+        <v>22.886457485967</v>
       </c>
       <c r="S4">
-        <v>0.0002937998687298072</v>
+        <v>0.0005817871852313172</v>
       </c>
       <c r="T4">
-        <v>0.0002937998687298072</v>
+        <v>0.0007547063642886177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.28469109380193</v>
+        <v>4.822863000000001</v>
       </c>
       <c r="H5">
-        <v>3.28469109380193</v>
+        <v>14.468589</v>
       </c>
       <c r="I5">
-        <v>0.00807266556403282</v>
+        <v>0.01095411591491635</v>
       </c>
       <c r="J5">
-        <v>0.00807266556403282</v>
+        <v>0.0112404931114524</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N5">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O5">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P5">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q5">
-        <v>0.7968504460580501</v>
+        <v>1.204426437958</v>
       </c>
       <c r="R5">
-        <v>0.7968504460580501</v>
+        <v>10.839837941622</v>
       </c>
       <c r="S5">
-        <v>0.000208736887734515</v>
+        <v>0.0002755550442127955</v>
       </c>
       <c r="T5">
-        <v>0.000208736887734515</v>
+        <v>0.000357455700053865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.28469109380193</v>
+        <v>4.822863000000001</v>
       </c>
       <c r="H6">
-        <v>3.28469109380193</v>
+        <v>14.468589</v>
       </c>
       <c r="I6">
-        <v>0.00807266556403282</v>
+        <v>0.01095411591491635</v>
       </c>
       <c r="J6">
-        <v>0.00807266556403282</v>
+        <v>0.0112404931114524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N6">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O6">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P6">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q6">
-        <v>20.33446141065189</v>
+        <v>30.01579442992951</v>
       </c>
       <c r="R6">
-        <v>20.33446141065189</v>
+        <v>180.094766579577</v>
       </c>
       <c r="S6">
-        <v>0.005326660993432961</v>
+        <v>0.006867172041859333</v>
       </c>
       <c r="T6">
-        <v>0.005326660993432961</v>
+        <v>0.005938825027683702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>372.745998966994</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H7">
-        <v>372.745998966994</v>
+        <v>1204.226379</v>
       </c>
       <c r="I7">
-        <v>0.9160842539104577</v>
+        <v>0.9117153955624826</v>
       </c>
       <c r="J7">
-        <v>0.9160842539104577</v>
+        <v>0.9355506827776202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N7">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O7">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P7">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q7">
-        <v>108.0166222387085</v>
+        <v>143.597171746269</v>
       </c>
       <c r="R7">
-        <v>108.0166222387085</v>
+        <v>1292.374545716421</v>
       </c>
       <c r="S7">
-        <v>0.02829521356390164</v>
+        <v>0.03285291966561378</v>
       </c>
       <c r="T7">
-        <v>0.02829521356390164</v>
+        <v>0.04261748657671661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>372.745998966994</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H8">
-        <v>372.745998966994</v>
+        <v>1204.226379</v>
       </c>
       <c r="I8">
-        <v>0.9160842539104577</v>
+        <v>0.9117153955624826</v>
       </c>
       <c r="J8">
-        <v>0.9160842539104577</v>
+        <v>0.9355506827776202</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N8">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P8">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q8">
-        <v>863.8707001279664</v>
+        <v>1031.308034363184</v>
       </c>
       <c r="R8">
-        <v>863.8707001279664</v>
+        <v>9281.772309268657</v>
       </c>
       <c r="S8">
-        <v>0.2262930042165175</v>
+        <v>0.2359481011457739</v>
       </c>
       <c r="T8">
-        <v>0.2262930042165175</v>
+        <v>0.3060767546912007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>372.745998966994</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H9">
-        <v>372.745998966994</v>
+        <v>1204.226379</v>
       </c>
       <c r="I9">
-        <v>0.9160842539104577</v>
+        <v>0.9117153955624826</v>
       </c>
       <c r="J9">
-        <v>0.9160842539104577</v>
+        <v>0.9355506827776202</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N9">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O9">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P9">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q9">
-        <v>127.2763379676649</v>
+        <v>211.649877664593</v>
       </c>
       <c r="R9">
-        <v>127.2763379676649</v>
+        <v>1904.848898981337</v>
       </c>
       <c r="S9">
-        <v>0.0333403423453455</v>
+        <v>0.04842237729053686</v>
       </c>
       <c r="T9">
-        <v>0.0333403423453455</v>
+        <v>0.06281450888372991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>372.745998966994</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H10">
-        <v>372.745998966994</v>
+        <v>1204.226379</v>
       </c>
       <c r="I10">
-        <v>0.9160842539104577</v>
+        <v>0.9117153955624826</v>
       </c>
       <c r="J10">
-        <v>0.9160842539104577</v>
+        <v>0.9355506827776202</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N10">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O10">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P10">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q10">
-        <v>90.42640755584959</v>
+        <v>100.244888299338</v>
       </c>
       <c r="R10">
-        <v>90.42640755584959</v>
+        <v>902.2039946940422</v>
       </c>
       <c r="S10">
-        <v>0.02368741459027284</v>
+        <v>0.02293455520144774</v>
       </c>
       <c r="T10">
-        <v>0.02368741459027284</v>
+        <v>0.02975117914599523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>372.745998966994</v>
+        <v>401.4087930000001</v>
       </c>
       <c r="H11">
-        <v>372.745998966994</v>
+        <v>1204.226379</v>
       </c>
       <c r="I11">
-        <v>0.9160842539104577</v>
+        <v>0.9117153955624826</v>
       </c>
       <c r="J11">
-        <v>0.9160842539104577</v>
+        <v>0.9355506827776202</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N11">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O11">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P11">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q11">
-        <v>2307.55006042169</v>
+        <v>2498.226429623675</v>
       </c>
       <c r="R11">
-        <v>2307.55006042169</v>
+        <v>14989.35857774205</v>
       </c>
       <c r="S11">
-        <v>0.60446827919442</v>
+        <v>0.5715574422591105</v>
       </c>
       <c r="T11">
-        <v>0.60446827919442</v>
+        <v>0.4942907534799778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>30.8598305172686</v>
+        <v>0.2543086666666667</v>
       </c>
       <c r="H12">
-        <v>30.8598305172686</v>
+        <v>0.762926</v>
       </c>
       <c r="I12">
-        <v>0.07584308052550942</v>
+        <v>0.0005776084895703007</v>
       </c>
       <c r="J12">
-        <v>0.07584308052550942</v>
+        <v>0.0005927091057426492</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N12">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O12">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P12">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q12">
-        <v>8.942751000875356</v>
+        <v>0.09097460225266668</v>
       </c>
       <c r="R12">
-        <v>8.942751000875356</v>
+        <v>0.818771420274</v>
       </c>
       <c r="S12">
-        <v>0.002342575097926788</v>
+        <v>2.081365017898188E-05</v>
       </c>
       <c r="T12">
-        <v>0.002342575097926788</v>
+        <v>2.699989730421617E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>30.8598305172686</v>
+        <v>0.2543086666666667</v>
       </c>
       <c r="H13">
-        <v>30.8598305172686</v>
+        <v>0.762926</v>
       </c>
       <c r="I13">
-        <v>0.07584308052550942</v>
+        <v>0.0005776084895703007</v>
       </c>
       <c r="J13">
-        <v>0.07584308052550942</v>
+        <v>0.0005927091057426492</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N13">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P13">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q13">
-        <v>71.52029389628352</v>
+        <v>0.6533752516515555</v>
       </c>
       <c r="R13">
-        <v>71.52029389628352</v>
+        <v>5.880377264863999</v>
       </c>
       <c r="S13">
-        <v>0.01873491271997166</v>
+        <v>0.0001494826422621827</v>
       </c>
       <c r="T13">
-        <v>0.01873491271997166</v>
+        <v>0.0001939119738794054</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>30.8598305172686</v>
+        <v>0.2543086666666667</v>
       </c>
       <c r="H14">
-        <v>30.8598305172686</v>
+        <v>0.762926</v>
       </c>
       <c r="I14">
-        <v>0.07584308052550942</v>
+        <v>0.0005776084895703007</v>
       </c>
       <c r="J14">
-        <v>0.07584308052550942</v>
+        <v>0.0005927091057426492</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N14">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O14">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P14">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q14">
-        <v>10.53727264524851</v>
+        <v>0.1340887372864444</v>
       </c>
       <c r="R14">
-        <v>10.53727264524851</v>
+        <v>1.206798635578</v>
       </c>
       <c r="S14">
-        <v>0.002760263871420336</v>
+        <v>3.067752979089998E-05</v>
       </c>
       <c r="T14">
-        <v>0.002760263871420336</v>
+        <v>3.97955258582062E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>30.8598305172686</v>
+        <v>0.2543086666666667</v>
       </c>
       <c r="H15">
-        <v>30.8598305172686</v>
+        <v>0.762926</v>
       </c>
       <c r="I15">
-        <v>0.07584308052550942</v>
+        <v>0.0005776084895703007</v>
       </c>
       <c r="J15">
-        <v>0.07584308052550942</v>
+        <v>0.0005927091057426492</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N15">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O15">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P15">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q15">
-        <v>7.486448195802291</v>
+        <v>0.06350918148311112</v>
       </c>
       <c r="R15">
-        <v>7.486448195802291</v>
+        <v>0.571582633348</v>
       </c>
       <c r="S15">
-        <v>0.001961093081277643</v>
+        <v>1.452996609835908E-05</v>
       </c>
       <c r="T15">
-        <v>0.001961093081277643</v>
+        <v>1.884857240877427E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2543086666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.762926</v>
+      </c>
+      <c r="I16">
+        <v>0.0005776084895703007</v>
+      </c>
+      <c r="J16">
+        <v>0.0005927091057426492</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.2236465</v>
+      </c>
+      <c r="N16">
+        <v>12.447293</v>
+      </c>
+      <c r="O16">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P16">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q16">
+        <v>1.582727243219667</v>
+      </c>
+      <c r="R16">
+        <v>9.496363459317999</v>
+      </c>
+      <c r="S16">
+        <v>0.0003621047012398772</v>
+      </c>
+      <c r="T16">
+        <v>0.0003131531362920472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1413463333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.424039</v>
+      </c>
+      <c r="I17">
+        <v>0.0003210383789632293</v>
+      </c>
+      <c r="J17">
+        <v>0.0003294313950370118</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.357733</v>
+      </c>
+      <c r="N17">
+        <v>1.073199</v>
+      </c>
+      <c r="O17">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P17">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q17">
+        <v>0.05056424786233334</v>
+      </c>
+      <c r="R17">
+        <v>0.455078230761</v>
+      </c>
+      <c r="S17">
+        <v>1.156835578843203E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.500671028773763E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1413463333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.424039</v>
+      </c>
+      <c r="I18">
+        <v>0.0003210383789632293</v>
+      </c>
+      <c r="J18">
+        <v>0.0003294313950370118</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P18">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q18">
+        <v>0.3631500149884444</v>
+      </c>
+      <c r="R18">
+        <v>3.268350134896</v>
+      </c>
+      <c r="S18">
+        <v>8.30833791772907E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001077774770971879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1413463333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.424039</v>
+      </c>
+      <c r="I19">
+        <v>0.0003210383789632293</v>
+      </c>
+      <c r="J19">
+        <v>0.0003294313950370118</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.581803</v>
+      </c>
+      <c r="O19">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P19">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q19">
+        <v>0.07452735136855554</v>
+      </c>
+      <c r="R19">
+        <v>0.6707461623169999</v>
+      </c>
+      <c r="S19">
+        <v>1.705076122062092E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.211859995515673E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1413463333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.424039</v>
+      </c>
+      <c r="I20">
+        <v>0.0003210383789632293</v>
+      </c>
+      <c r="J20">
+        <v>0.0003294313950370118</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.749198</v>
+      </c>
+      <c r="O20">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P20">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q20">
+        <v>0.03529879674688889</v>
+      </c>
+      <c r="R20">
+        <v>0.317689170722</v>
+      </c>
+      <c r="S20">
+        <v>8.075845225332583E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.047615338269273E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1413463333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.424039</v>
+      </c>
+      <c r="I21">
+        <v>0.0003210383789632293</v>
+      </c>
+      <c r="J21">
+        <v>0.0003294313950370118</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.2236465</v>
+      </c>
+      <c r="N21">
+        <v>12.447293</v>
+      </c>
+      <c r="O21">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P21">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q21">
+        <v>0.8796896127378333</v>
+      </c>
+      <c r="R21">
+        <v>5.278137676427</v>
+      </c>
+      <c r="S21">
+        <v>0.0002012600375515532</v>
+      </c>
+      <c r="T21">
+        <v>0.0001740524543142368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.6513055</v>
+      </c>
+      <c r="H22">
+        <v>67.302611</v>
+      </c>
+      <c r="I22">
+        <v>0.0764318416540677</v>
+      </c>
+      <c r="J22">
+        <v>0.0522866836101475</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.357733</v>
+      </c>
+      <c r="N22">
+        <v>1.073199</v>
+      </c>
+      <c r="O22">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P22">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q22">
+        <v>12.0381824704315</v>
+      </c>
+      <c r="R22">
+        <v>72.229094822589</v>
+      </c>
+      <c r="S22">
+        <v>0.002754158990818437</v>
+      </c>
+      <c r="T22">
+        <v>0.002381834654089138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.6513055</v>
+      </c>
+      <c r="H23">
+        <v>67.302611</v>
+      </c>
+      <c r="I23">
+        <v>0.0764318416540677</v>
+      </c>
+      <c r="J23">
+        <v>0.0522866836101475</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P23">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q23">
+        <v>86.45765198511732</v>
+      </c>
+      <c r="R23">
+        <v>518.745911910704</v>
+      </c>
+      <c r="S23">
+        <v>0.01978023843090387</v>
+      </c>
+      <c r="T23">
+        <v>0.01710622281354651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.8598305172686</v>
-      </c>
-      <c r="H16">
-        <v>30.8598305172686</v>
-      </c>
-      <c r="I16">
-        <v>0.07584308052550942</v>
-      </c>
-      <c r="J16">
-        <v>0.07584308052550942</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="N16">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="O16">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="P16">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="Q16">
-        <v>191.0432411671086</v>
-      </c>
-      <c r="R16">
-        <v>191.0432411671086</v>
-      </c>
-      <c r="S16">
-        <v>0.05004423575491299</v>
-      </c>
-      <c r="T16">
-        <v>0.05004423575491299</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.6513055</v>
+      </c>
+      <c r="H24">
+        <v>67.302611</v>
+      </c>
+      <c r="I24">
+        <v>0.0764318416540677</v>
+      </c>
+      <c r="J24">
+        <v>0.0522866836101475</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.581803</v>
+      </c>
+      <c r="O24">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P24">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q24">
+        <v>17.74324533127216</v>
+      </c>
+      <c r="R24">
+        <v>106.459471987633</v>
+      </c>
+      <c r="S24">
+        <v>0.004059393415530182</v>
+      </c>
+      <c r="T24">
+        <v>0.003510619373799416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.6513055</v>
+      </c>
+      <c r="H25">
+        <v>67.302611</v>
+      </c>
+      <c r="I25">
+        <v>0.0764318416540677</v>
+      </c>
+      <c r="J25">
+        <v>0.0522866836101475</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.749198</v>
+      </c>
+      <c r="O25">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P25">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q25">
+        <v>8.403830259329666</v>
+      </c>
+      <c r="R25">
+        <v>50.422981555978</v>
+      </c>
+      <c r="S25">
+        <v>0.001922672689410996</v>
+      </c>
+      <c r="T25">
+        <v>0.001662753840782813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.6513055</v>
+      </c>
+      <c r="H26">
+        <v>67.302611</v>
+      </c>
+      <c r="I26">
+        <v>0.0764318416540677</v>
+      </c>
+      <c r="J26">
+        <v>0.0522866836101475</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.2236465</v>
+      </c>
+      <c r="N26">
+        <v>12.447293</v>
+      </c>
+      <c r="O26">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P26">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q26">
+        <v>209.4338296955058</v>
+      </c>
+      <c r="R26">
+        <v>837.735318782023</v>
+      </c>
+      <c r="S26">
+        <v>0.04791537812740423</v>
+      </c>
+      <c r="T26">
+        <v>0.02762525292792962</v>
       </c>
     </row>
   </sheetData>
